--- a/BCTF/resources/dataprovider.xlsx
+++ b/BCTF/resources/dataprovider.xlsx
@@ -27,13 +27,13 @@
     <t>Browser Width</t>
   </si>
   <si>
-    <t>https://eag.synechron.com/</t>
-  </si>
-  <si>
     <t>specFile</t>
   </si>
   <si>
     <t>homepage.spec</t>
+  </si>
+  <si>
+    <t>http://www.swtestacademy.com/</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,12 +407,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1028</v>
@@ -421,7 +421,7 @@
         <v>726</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
